--- a/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/testdrive/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/RogueTech Core/Contracts/testdrive/LocalizationDef.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="645">
   <si>
     <t>ThreeWayBattle_TestDrive.contractName</t>
   </si>
@@ -767,18 +767,33 @@
     <t>ThreeWayBattle_TestDrive_Wildcard_2_NEW.dialogueList23.dialogueContent0.words</t>
   </si>
   <si>
+    <t xml:space="preserve">Another {TEAM_EMP.FactionDef.Demonym} lance has dropped in Commander!
+---
+Another {TEAM_TAR.FactionDef.Demonym} lance has dropped in Commander!</t>
+  </si>
+  <si>
     <t>ThreeWayBattle_TestDrive_Wildcard_2_NEW.dialogueList23.dialogueContent1.words</t>
   </si>
   <si>
     <t>ThreeWayBattle_TestDrive_Wildcard_2_NEW.dialogueList24.dialogueContent0.words</t>
   </si>
   <si>
+    <t xml:space="preserve">Another {TEAM_EMP.FactionDef.Demonym} lance has dropped in Commander!  
+---
+Another {TEAM_TAR.FactionDef.Demonym} lance has dropped in Commander!</t>
+  </si>
+  <si>
     <t>ThreeWayBattle_TestDrive_Wildcard_2_NEW.dialogueList24.dialogueContent1.words</t>
   </si>
   <si>
     <t>ThreeWayBattle_TestDrive_Wildcard_2_NEW.dialogueList25.dialogueContent0.words</t>
   </si>
   <si>
+    <t xml:space="preserve">More {TEAM_EMP.FactionDef.Demonym} forces on the field!
+---
+More {TEAM_TAR.FactionDef.Demonym} forces on the field!</t>
+  </si>
+  <si>
     <t>ThreeWayBattle_TestDrive_Wildcard_2_NEW.dialogueList25.dialogueContent1.words</t>
   </si>
   <si>
@@ -1194,6 +1209,11 @@
   </si>
   <si>
     <t>ThreeWayBattle_TestDrive_Wildcard_5_NEW.dialogueList24.dialogueContent0.words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another {TEAM_EMP.FactionDef.Demonym} lance has dropped in Commander!  
+---
+Another {TEAM_TAR.FactionDef.Demonym} lance has dropped in Commander!  </t>
   </si>
   <si>
     <t>ThreeWayBattle_TestDrive_Wildcard_5_NEW.dialogueList24.dialogueContent1.words</t>
@@ -1948,12 +1968,17 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000" tint="0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1968,8 +1993,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4282,23 +4308,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="0" t="s">
+    <row r="165" s="1" customFormat="1">
+      <c r="A165" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B165" s="0" t="s">
+      <c r="B165" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C165" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D165" s="0" t="s">
+      <c r="D165" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B166" s="0" t="s">
         <v>43</v>
@@ -4310,23 +4336,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="B167" s="0" t="s">
+    <row r="167" s="1" customFormat="1">
+      <c r="A167" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C167" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D167" s="0" t="s">
+      <c r="D167" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B168" s="0" t="s">
         <v>47</v>
@@ -4338,23 +4364,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="B169" s="0" t="s">
+    <row r="169" s="1" customFormat="1">
+      <c r="A169" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C169" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D169" s="0" t="s">
+      <c r="D169" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B170" s="0" t="s">
         <v>43</v>
@@ -4366,23 +4392,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="B171" s="0" t="s">
+    <row r="171" s="1" customFormat="1">
+      <c r="A171" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C171" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D171" s="0" t="s">
+      <c r="D171" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B172" s="0" t="s">
         <v>47</v>
@@ -4396,7 +4422,7 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B173" s="0" t="s">
         <v>60</v>
@@ -4410,7 +4436,7 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B174" s="0" t="s">
         <v>62</v>
@@ -4424,7 +4450,7 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B175" s="0" t="s">
         <v>64</v>
@@ -4438,7 +4464,7 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>66</v>
@@ -4452,7 +4478,7 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B177" s="0" t="s">
         <v>62</v>
@@ -4466,7 +4492,7 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B178" s="0" t="s">
         <v>62</v>
@@ -4480,7 +4506,7 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B179" s="0" t="s">
         <v>62</v>
@@ -4494,7 +4520,7 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B180" s="0" t="s">
         <v>62</v>
@@ -4508,7 +4534,7 @@
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B181" s="0" t="s">
         <v>62</v>
@@ -4522,7 +4548,7 @@
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B182" s="0" t="s">
         <v>62</v>
@@ -4536,7 +4562,7 @@
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B183" s="0" t="s">
         <v>74</v>
@@ -4550,7 +4576,7 @@
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B184" s="0" t="s">
         <v>76</v>
@@ -4564,7 +4590,7 @@
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B185" s="0" t="s">
         <v>78</v>
@@ -4578,7 +4604,7 @@
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B186" s="0" t="s">
         <v>74</v>
@@ -4592,7 +4618,7 @@
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B187" s="0" t="s">
         <v>76</v>
@@ -4606,7 +4632,7 @@
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B188" s="0" t="s">
         <v>78</v>
@@ -4620,7 +4646,7 @@
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B189" s="0" t="s">
         <v>83</v>
@@ -4634,7 +4660,7 @@
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B190" s="0" t="s">
         <v>85</v>
@@ -4648,7 +4674,7 @@
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B191" s="0" t="s">
         <v>87</v>
@@ -4662,7 +4688,7 @@
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B192" s="0" t="s">
         <v>89</v>
@@ -4676,7 +4702,7 @@
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B193" s="0" t="s">
         <v>91</v>
@@ -4690,7 +4716,7 @@
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B194" s="0" t="s">
         <v>87</v>
@@ -4704,7 +4730,7 @@
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B195" s="0" t="s">
         <v>89</v>
@@ -4718,7 +4744,7 @@
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B196" s="0" t="s">
         <v>91</v>
@@ -4732,7 +4758,7 @@
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B197" s="0" t="s">
         <v>96</v>
@@ -4746,7 +4772,7 @@
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B198" s="0" t="s">
         <v>98</v>
@@ -4760,7 +4786,7 @@
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B199" s="0" t="s">
         <v>100</v>
@@ -4774,7 +4800,7 @@
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B200" s="0" t="s">
         <v>102</v>
@@ -4788,7 +4814,7 @@
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B201" s="0" t="s">
         <v>104</v>
@@ -4802,7 +4828,7 @@
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B202" s="0" t="s">
         <v>43</v>
@@ -4816,7 +4842,7 @@
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B203" s="0" t="s">
         <v>104</v>
@@ -4830,7 +4856,7 @@
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B204" s="0" t="s">
         <v>47</v>
@@ -4844,13 +4870,13 @@
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D205" s="0" t="s">
         <v>2</v>
@@ -4858,7 +4884,7 @@
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B206" s="0" t="s">
         <v>111</v>
@@ -4872,7 +4898,7 @@
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B207" s="0" t="s">
         <v>113</v>
@@ -4886,7 +4912,7 @@
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B208" s="0" t="s">
         <v>115</v>
@@ -4900,7 +4926,7 @@
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B209" s="0" t="s">
         <v>117</v>
@@ -4914,7 +4940,7 @@
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B210" s="0" t="s">
         <v>119</v>
@@ -4928,7 +4954,7 @@
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B211" s="0" t="s">
         <v>121</v>
@@ -4942,7 +4968,7 @@
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B212" s="0" t="s">
         <v>115</v>
@@ -4956,7 +4982,7 @@
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B213" s="0" t="s">
         <v>117</v>
@@ -4970,7 +4996,7 @@
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B214" s="0" t="s">
         <v>125</v>
@@ -4984,7 +5010,7 @@
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B215" s="0" t="s">
         <v>127</v>
@@ -4998,7 +5024,7 @@
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B216" s="0" t="s">
         <v>115</v>
@@ -5012,7 +5038,7 @@
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B217" s="0" t="s">
         <v>117</v>
@@ -5026,7 +5052,7 @@
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B218" s="0" t="s">
         <v>131</v>
@@ -5040,7 +5066,7 @@
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B219" s="0" t="s">
         <v>133</v>
@@ -5054,7 +5080,7 @@
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B220" s="0" t="s">
         <v>127</v>
@@ -5068,7 +5094,7 @@
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B221" s="0" t="s">
         <v>115</v>
@@ -5082,7 +5108,7 @@
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B222" s="0" t="s">
         <v>117</v>
@@ -5096,7 +5122,7 @@
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B223" s="0" t="s">
         <v>138</v>
@@ -5110,7 +5136,7 @@
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B224" s="0" t="s">
         <v>140</v>
@@ -5124,7 +5150,7 @@
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B225" s="0" t="s">
         <v>115</v>
@@ -5138,7 +5164,7 @@
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B226" s="0" t="s">
         <v>117</v>
@@ -5152,7 +5178,7 @@
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B227" s="0" t="s">
         <v>119</v>
@@ -5166,7 +5192,7 @@
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B228" s="0" t="s">
         <v>140</v>
@@ -5180,7 +5206,7 @@
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B229" s="0" t="s">
         <v>146</v>
@@ -5194,7 +5220,7 @@
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B230" s="0" t="s">
         <v>115</v>
@@ -5208,7 +5234,7 @@
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B231" s="0" t="s">
         <v>117</v>
@@ -5222,7 +5248,7 @@
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B232" s="0" t="s">
         <v>125</v>
@@ -5236,7 +5262,7 @@
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B233" s="0" t="s">
         <v>151</v>
@@ -5250,7 +5276,7 @@
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B234" s="0" t="s">
         <v>153</v>
@@ -5264,7 +5290,7 @@
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B235" s="0" t="s">
         <v>151</v>
@@ -5278,7 +5304,7 @@
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B236" s="0" t="s">
         <v>156</v>
@@ -5292,7 +5318,7 @@
     </row>
     <row r="237">
       <c r="A237" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B237" s="0" t="s">
         <v>158</v>
@@ -5306,7 +5332,7 @@
     </row>
     <row r="238">
       <c r="A238" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B238" s="0" t="s">
         <v>158</v>
@@ -5320,13 +5346,13 @@
     </row>
     <row r="239">
       <c r="A239" s="0" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C239" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D239" s="0" t="s">
         <v>2</v>
@@ -5334,7 +5360,7 @@
     </row>
     <row r="240">
       <c r="A240" s="0" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B240" s="0" t="s">
         <v>163</v>
@@ -5348,13 +5374,13 @@
     </row>
     <row r="241">
       <c r="A241" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C241" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D241" s="0" t="s">
         <v>2</v>
@@ -5362,7 +5388,7 @@
     </row>
     <row r="242">
       <c r="A242" s="0" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B242" s="0" t="s">
         <v>166</v>
@@ -5376,7 +5402,7 @@
     </row>
     <row r="243">
       <c r="A243" s="0" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B243" s="0" t="s">
         <v>168</v>
@@ -5390,7 +5416,7 @@
     </row>
     <row r="244">
       <c r="A244" s="0" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B244" s="0" t="s">
         <v>170</v>
@@ -5404,7 +5430,7 @@
     </row>
     <row r="245">
       <c r="A245" s="0" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B245" s="0" t="s">
         <v>172</v>
@@ -5418,7 +5444,7 @@
     </row>
     <row r="246">
       <c r="A246" s="0" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B246" s="0" t="s">
         <v>174</v>
@@ -5432,7 +5458,7 @@
     </row>
     <row r="247">
       <c r="A247" s="0" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B247" s="0" t="s">
         <v>176</v>
@@ -5446,7 +5472,7 @@
     </row>
     <row r="248">
       <c r="A248" s="0" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B248" s="0" t="s">
         <v>178</v>
@@ -5460,7 +5486,7 @@
     </row>
     <row r="249">
       <c r="A249" s="0" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B249" s="0" t="s">
         <v>172</v>
@@ -5474,7 +5500,7 @@
     </row>
     <row r="250">
       <c r="A250" s="0" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B250" s="0" t="s">
         <v>174</v>
@@ -5488,7 +5514,7 @@
     </row>
     <row r="251">
       <c r="A251" s="0" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B251" s="0" t="s">
         <v>182</v>
@@ -5502,7 +5528,7 @@
     </row>
     <row r="252">
       <c r="A252" s="0" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B252" s="0" t="s">
         <v>176</v>
@@ -5516,7 +5542,7 @@
     </row>
     <row r="253">
       <c r="A253" s="0" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B253" s="0" t="s">
         <v>185</v>
@@ -5530,7 +5556,7 @@
     </row>
     <row r="254">
       <c r="A254" s="0" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B254" s="0" t="s">
         <v>172</v>
@@ -5544,7 +5570,7 @@
     </row>
     <row r="255">
       <c r="A255" s="0" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B255" s="0" t="s">
         <v>188</v>
@@ -5558,7 +5584,7 @@
     </row>
     <row r="256">
       <c r="A256" s="0" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B256" s="0" t="s">
         <v>190</v>
@@ -5572,7 +5598,7 @@
     </row>
     <row r="257">
       <c r="A257" s="0" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B257" s="0" t="s">
         <v>192</v>
@@ -5586,7 +5612,7 @@
     </row>
     <row r="258">
       <c r="A258" s="0" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B258" s="0" t="s">
         <v>172</v>
@@ -5600,7 +5626,7 @@
     </row>
     <row r="259">
       <c r="A259" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B259" s="0" t="s">
         <v>188</v>
@@ -5614,7 +5640,7 @@
     </row>
     <row r="260">
       <c r="A260" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B260" s="0" t="s">
         <v>190</v>
@@ -5628,7 +5654,7 @@
     </row>
     <row r="261">
       <c r="A261" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B261" s="0" t="s">
         <v>197</v>
@@ -5642,7 +5668,7 @@
     </row>
     <row r="262">
       <c r="A262" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B262" s="0" t="s">
         <v>199</v>
@@ -5656,7 +5682,7 @@
     </row>
     <row r="263">
       <c r="A263" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B263" s="0" t="s">
         <v>201</v>
@@ -5670,7 +5696,7 @@
     </row>
     <row r="264">
       <c r="A264" s="0" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B264" s="0" t="s">
         <v>203</v>
@@ -5684,7 +5710,7 @@
     </row>
     <row r="265">
       <c r="A265" s="0" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B265" s="0" t="s">
         <v>205</v>
@@ -5698,7 +5724,7 @@
     </row>
     <row r="266">
       <c r="A266" s="0" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B266" s="0" t="s">
         <v>207</v>
@@ -5712,7 +5738,7 @@
     </row>
     <row r="267">
       <c r="A267" s="0" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B267" s="0" t="s">
         <v>209</v>
@@ -5726,7 +5752,7 @@
     </row>
     <row r="268">
       <c r="A268" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B268" s="0" t="s">
         <v>211</v>
@@ -5740,7 +5766,7 @@
     </row>
     <row r="269">
       <c r="A269" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B269" s="0" t="s">
         <v>213</v>
@@ -5754,7 +5780,7 @@
     </row>
     <row r="270">
       <c r="A270" s="0" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B270" s="0" t="s">
         <v>215</v>
@@ -5768,7 +5794,7 @@
     </row>
     <row r="271">
       <c r="A271" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B271" s="0" t="s">
         <v>217</v>
@@ -5782,7 +5808,7 @@
     </row>
     <row r="272">
       <c r="A272" s="0" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B272" s="0" t="s">
         <v>217</v>
@@ -5796,7 +5822,7 @@
     </row>
     <row r="273">
       <c r="A273" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B273" s="0" t="s">
         <v>146</v>
@@ -5810,7 +5836,7 @@
     </row>
     <row r="274">
       <c r="A274" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B274" s="0" t="s">
         <v>163</v>
@@ -5824,7 +5850,7 @@
     </row>
     <row r="275">
       <c r="A275" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B275" s="0" t="s">
         <v>121</v>
@@ -5838,13 +5864,13 @@
     </row>
     <row r="276">
       <c r="A276" s="0" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D276" s="0" t="s">
         <v>2</v>
@@ -5852,7 +5878,7 @@
     </row>
     <row r="277">
       <c r="A277" s="0" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B277" s="0" t="s">
         <v>1</v>
@@ -5866,7 +5892,7 @@
     </row>
     <row r="278">
       <c r="A278" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B278" s="0" t="s">
         <v>4</v>
@@ -5880,7 +5906,7 @@
     </row>
     <row r="279">
       <c r="A279" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B279" s="0" t="s">
         <v>6</v>
@@ -5894,7 +5920,7 @@
     </row>
     <row r="280">
       <c r="A280" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B280" s="0" t="s">
         <v>8</v>
@@ -5908,7 +5934,7 @@
     </row>
     <row r="281">
       <c r="A281" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B281" s="0" t="s">
         <v>10</v>
@@ -5922,7 +5948,7 @@
     </row>
     <row r="282">
       <c r="A282" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B282" s="0" t="s">
         <v>12</v>
@@ -5936,7 +5962,7 @@
     </row>
     <row r="283">
       <c r="A283" s="0" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B283" s="0" t="s">
         <v>14</v>
@@ -5950,7 +5976,7 @@
     </row>
     <row r="284">
       <c r="A284" s="0" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B284" s="0" t="s">
         <v>16</v>
@@ -5964,7 +5990,7 @@
     </row>
     <row r="285">
       <c r="A285" s="0" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B285" s="0" t="s">
         <v>18</v>
@@ -5978,7 +6004,7 @@
     </row>
     <row r="286">
       <c r="A286" s="0" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B286" s="0" t="s">
         <v>20</v>
@@ -5992,7 +6018,7 @@
     </row>
     <row r="287">
       <c r="A287" s="0" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B287" s="0" t="s">
         <v>22</v>
@@ -6006,7 +6032,7 @@
     </row>
     <row r="288">
       <c r="A288" s="0" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B288" s="0" t="s">
         <v>24</v>
@@ -6020,7 +6046,7 @@
     </row>
     <row r="289">
       <c r="A289" s="0" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B289" s="0" t="s">
         <v>24</v>
@@ -6034,7 +6060,7 @@
     </row>
     <row r="290">
       <c r="A290" s="0" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B290" s="0" t="s">
         <v>27</v>
@@ -6048,7 +6074,7 @@
     </row>
     <row r="291">
       <c r="A291" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B291" s="0" t="s">
         <v>29</v>
@@ -6062,7 +6088,7 @@
     </row>
     <row r="292">
       <c r="A292" s="0" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B292" s="0" t="s">
         <v>29</v>
@@ -6076,7 +6102,7 @@
     </row>
     <row r="293">
       <c r="A293" s="0" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B293" s="0" t="s">
         <v>32</v>
@@ -6090,7 +6116,7 @@
     </row>
     <row r="294">
       <c r="A294" s="0" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B294" s="0" t="s">
         <v>32</v>
@@ -6104,7 +6130,7 @@
     </row>
     <row r="295">
       <c r="A295" s="0" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B295" s="0" t="s">
         <v>27</v>
@@ -6118,7 +6144,7 @@
     </row>
     <row r="296">
       <c r="A296" s="0" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B296" s="0" t="s">
         <v>36</v>
@@ -6132,7 +6158,7 @@
     </row>
     <row r="297">
       <c r="A297" s="0" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B297" s="0" t="s">
         <v>38</v>
@@ -6146,7 +6172,7 @@
     </row>
     <row r="298">
       <c r="A298" s="0" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B298" s="0" t="s">
         <v>36</v>
@@ -6160,7 +6186,7 @@
     </row>
     <row r="299">
       <c r="A299" s="0" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B299" s="0" t="s">
         <v>41</v>
@@ -6174,7 +6200,7 @@
     </row>
     <row r="300">
       <c r="A300" s="0" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B300" s="0" t="s">
         <v>43</v>
@@ -6188,7 +6214,7 @@
     </row>
     <row r="301">
       <c r="A301" s="0" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B301" s="0" t="s">
         <v>45</v>
@@ -6202,7 +6228,7 @@
     </row>
     <row r="302">
       <c r="A302" s="0" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B302" s="0" t="s">
         <v>47</v>
@@ -6214,23 +6240,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="B303" s="0" t="s">
+    <row r="303" s="1" customFormat="1">
+      <c r="A303" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C303" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C303" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D303" s="0" t="s">
+      <c r="D303" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="0" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B304" s="0" t="s">
         <v>43</v>
@@ -6242,23 +6268,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="B305" s="0" t="s">
+    <row r="305" s="1" customFormat="1">
+      <c r="A305" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C305" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C305" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D305" s="0" t="s">
+      <c r="D305" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="0" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B306" s="0" t="s">
         <v>47</v>
@@ -6270,23 +6296,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="B307" s="0" t="s">
+    <row r="307" s="1" customFormat="1">
+      <c r="A307" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C307" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C307" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D307" s="0" t="s">
+      <c r="D307" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="0" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B308" s="0" t="s">
         <v>43</v>
@@ -6298,23 +6324,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="B309" s="0" t="s">
+    <row r="309" s="1" customFormat="1">
+      <c r="A309" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C309" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C309" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D309" s="0" t="s">
+      <c r="D309" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="0" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B310" s="0" t="s">
         <v>47</v>
@@ -6328,7 +6354,7 @@
     </row>
     <row r="311">
       <c r="A311" s="0" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B311" s="0" t="s">
         <v>60</v>
@@ -6342,7 +6368,7 @@
     </row>
     <row r="312">
       <c r="A312" s="0" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B312" s="0" t="s">
         <v>62</v>
@@ -6356,7 +6382,7 @@
     </row>
     <row r="313">
       <c r="A313" s="0" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B313" s="0" t="s">
         <v>64</v>
@@ -6370,7 +6396,7 @@
     </row>
     <row r="314">
       <c r="A314" s="0" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B314" s="0" t="s">
         <v>66</v>
@@ -6384,7 +6410,7 @@
     </row>
     <row r="315">
       <c r="A315" s="0" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B315" s="0" t="s">
         <v>62</v>
@@ -6398,7 +6424,7 @@
     </row>
     <row r="316">
       <c r="A316" s="0" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B316" s="0" t="s">
         <v>62</v>
@@ -6412,7 +6438,7 @@
     </row>
     <row r="317">
       <c r="A317" s="0" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B317" s="0" t="s">
         <v>62</v>
@@ -6426,7 +6452,7 @@
     </row>
     <row r="318">
       <c r="A318" s="0" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B318" s="0" t="s">
         <v>62</v>
@@ -6440,7 +6466,7 @@
     </row>
     <row r="319">
       <c r="A319" s="0" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B319" s="0" t="s">
         <v>62</v>
@@ -6454,7 +6480,7 @@
     </row>
     <row r="320">
       <c r="A320" s="0" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B320" s="0" t="s">
         <v>62</v>
@@ -6468,7 +6494,7 @@
     </row>
     <row r="321">
       <c r="A321" s="0" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B321" s="0" t="s">
         <v>74</v>
@@ -6482,7 +6508,7 @@
     </row>
     <row r="322">
       <c r="A322" s="0" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B322" s="0" t="s">
         <v>76</v>
@@ -6496,7 +6522,7 @@
     </row>
     <row r="323">
       <c r="A323" s="0" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B323" s="0" t="s">
         <v>78</v>
@@ -6510,7 +6536,7 @@
     </row>
     <row r="324">
       <c r="A324" s="0" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B324" s="0" t="s">
         <v>74</v>
@@ -6524,7 +6550,7 @@
     </row>
     <row r="325">
       <c r="A325" s="0" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B325" s="0" t="s">
         <v>76</v>
@@ -6538,7 +6564,7 @@
     </row>
     <row r="326">
       <c r="A326" s="0" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B326" s="0" t="s">
         <v>78</v>
@@ -6552,7 +6578,7 @@
     </row>
     <row r="327">
       <c r="A327" s="0" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B327" s="0" t="s">
         <v>83</v>
@@ -6566,7 +6592,7 @@
     </row>
     <row r="328">
       <c r="A328" s="0" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B328" s="0" t="s">
         <v>85</v>
@@ -6580,7 +6606,7 @@
     </row>
     <row r="329">
       <c r="A329" s="0" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B329" s="0" t="s">
         <v>87</v>
@@ -6594,7 +6620,7 @@
     </row>
     <row r="330">
       <c r="A330" s="0" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B330" s="0" t="s">
         <v>89</v>
@@ -6608,7 +6634,7 @@
     </row>
     <row r="331">
       <c r="A331" s="0" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B331" s="0" t="s">
         <v>91</v>
@@ -6622,7 +6648,7 @@
     </row>
     <row r="332">
       <c r="A332" s="0" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B332" s="0" t="s">
         <v>87</v>
@@ -6636,7 +6662,7 @@
     </row>
     <row r="333">
       <c r="A333" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B333" s="0" t="s">
         <v>89</v>
@@ -6650,7 +6676,7 @@
     </row>
     <row r="334">
       <c r="A334" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B334" s="0" t="s">
         <v>91</v>
@@ -6664,7 +6690,7 @@
     </row>
     <row r="335">
       <c r="A335" s="0" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B335" s="0" t="s">
         <v>96</v>
@@ -6678,7 +6704,7 @@
     </row>
     <row r="336">
       <c r="A336" s="0" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B336" s="0" t="s">
         <v>98</v>
@@ -6692,7 +6718,7 @@
     </row>
     <row r="337">
       <c r="A337" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B337" s="0" t="s">
         <v>100</v>
@@ -6706,7 +6732,7 @@
     </row>
     <row r="338">
       <c r="A338" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B338" s="0" t="s">
         <v>102</v>
@@ -6720,7 +6746,7 @@
     </row>
     <row r="339">
       <c r="A339" s="0" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B339" s="0" t="s">
         <v>104</v>
@@ -6734,7 +6760,7 @@
     </row>
     <row r="340">
       <c r="A340" s="0" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B340" s="0" t="s">
         <v>43</v>
@@ -6748,7 +6774,7 @@
     </row>
     <row r="341">
       <c r="A341" s="0" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B341" s="0" t="s">
         <v>104</v>
@@ -6762,7 +6788,7 @@
     </row>
     <row r="342">
       <c r="A342" s="0" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B342" s="0" t="s">
         <v>47</v>
@@ -6776,13 +6802,13 @@
     </row>
     <row r="343">
       <c r="A343" s="0" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D343" s="0" t="s">
         <v>2</v>
@@ -6790,7 +6816,7 @@
     </row>
     <row r="344">
       <c r="A344" s="0" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B344" s="0" t="s">
         <v>111</v>
@@ -6804,7 +6830,7 @@
     </row>
     <row r="345">
       <c r="A345" s="0" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B345" s="0" t="s">
         <v>113</v>
@@ -6818,7 +6844,7 @@
     </row>
     <row r="346">
       <c r="A346" s="0" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B346" s="0" t="s">
         <v>115</v>
@@ -6832,7 +6858,7 @@
     </row>
     <row r="347">
       <c r="A347" s="0" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B347" s="0" t="s">
         <v>117</v>
@@ -6846,7 +6872,7 @@
     </row>
     <row r="348">
       <c r="A348" s="0" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B348" s="0" t="s">
         <v>119</v>
@@ -6860,7 +6886,7 @@
     </row>
     <row r="349">
       <c r="A349" s="0" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B349" s="0" t="s">
         <v>121</v>
@@ -6874,7 +6900,7 @@
     </row>
     <row r="350">
       <c r="A350" s="0" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B350" s="0" t="s">
         <v>115</v>
@@ -6888,7 +6914,7 @@
     </row>
     <row r="351">
       <c r="A351" s="0" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B351" s="0" t="s">
         <v>117</v>
@@ -6902,7 +6928,7 @@
     </row>
     <row r="352">
       <c r="A352" s="0" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B352" s="0" t="s">
         <v>125</v>
@@ -6916,7 +6942,7 @@
     </row>
     <row r="353">
       <c r="A353" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B353" s="0" t="s">
         <v>127</v>
@@ -6930,7 +6956,7 @@
     </row>
     <row r="354">
       <c r="A354" s="0" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B354" s="0" t="s">
         <v>115</v>
@@ -6944,7 +6970,7 @@
     </row>
     <row r="355">
       <c r="A355" s="0" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B355" s="0" t="s">
         <v>117</v>
@@ -6958,7 +6984,7 @@
     </row>
     <row r="356">
       <c r="A356" s="0" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B356" s="0" t="s">
         <v>131</v>
@@ -6972,7 +6998,7 @@
     </row>
     <row r="357">
       <c r="A357" s="0" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B357" s="0" t="s">
         <v>133</v>
@@ -6986,7 +7012,7 @@
     </row>
     <row r="358">
       <c r="A358" s="0" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B358" s="0" t="s">
         <v>127</v>
@@ -7000,7 +7026,7 @@
     </row>
     <row r="359">
       <c r="A359" s="0" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B359" s="0" t="s">
         <v>115</v>
@@ -7014,7 +7040,7 @@
     </row>
     <row r="360">
       <c r="A360" s="0" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B360" s="0" t="s">
         <v>117</v>
@@ -7028,7 +7054,7 @@
     </row>
     <row r="361">
       <c r="A361" s="0" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B361" s="0" t="s">
         <v>138</v>
@@ -7042,7 +7068,7 @@
     </row>
     <row r="362">
       <c r="A362" s="0" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B362" s="0" t="s">
         <v>140</v>
@@ -7056,7 +7082,7 @@
     </row>
     <row r="363">
       <c r="A363" s="0" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B363" s="0" t="s">
         <v>115</v>
@@ -7070,7 +7096,7 @@
     </row>
     <row r="364">
       <c r="A364" s="0" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B364" s="0" t="s">
         <v>117</v>
@@ -7084,7 +7110,7 @@
     </row>
     <row r="365">
       <c r="A365" s="0" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B365" s="0" t="s">
         <v>119</v>
@@ -7098,7 +7124,7 @@
     </row>
     <row r="366">
       <c r="A366" s="0" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B366" s="0" t="s">
         <v>140</v>
@@ -7112,7 +7138,7 @@
     </row>
     <row r="367">
       <c r="A367" s="0" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B367" s="0" t="s">
         <v>146</v>
@@ -7126,7 +7152,7 @@
     </row>
     <row r="368">
       <c r="A368" s="0" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B368" s="0" t="s">
         <v>115</v>
@@ -7140,7 +7166,7 @@
     </row>
     <row r="369">
       <c r="A369" s="0" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B369" s="0" t="s">
         <v>117</v>
@@ -7154,7 +7180,7 @@
     </row>
     <row r="370">
       <c r="A370" s="0" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B370" s="0" t="s">
         <v>125</v>
@@ -7168,7 +7194,7 @@
     </row>
     <row r="371">
       <c r="A371" s="0" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B371" s="0" t="s">
         <v>151</v>
@@ -7182,7 +7208,7 @@
     </row>
     <row r="372">
       <c r="A372" s="0" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B372" s="0" t="s">
         <v>153</v>
@@ -7196,7 +7222,7 @@
     </row>
     <row r="373">
       <c r="A373" s="0" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B373" s="0" t="s">
         <v>151</v>
@@ -7210,7 +7236,7 @@
     </row>
     <row r="374">
       <c r="A374" s="0" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B374" s="0" t="s">
         <v>156</v>
@@ -7224,7 +7250,7 @@
     </row>
     <row r="375">
       <c r="A375" s="0" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B375" s="0" t="s">
         <v>158</v>
@@ -7238,7 +7264,7 @@
     </row>
     <row r="376">
       <c r="A376" s="0" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B376" s="0" t="s">
         <v>158</v>
@@ -7252,13 +7278,13 @@
     </row>
     <row r="377">
       <c r="A377" s="0" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D377" s="0" t="s">
         <v>2</v>
@@ -7266,7 +7292,7 @@
     </row>
     <row r="378">
       <c r="A378" s="0" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B378" s="0" t="s">
         <v>163</v>
@@ -7280,13 +7306,13 @@
     </row>
     <row r="379">
       <c r="A379" s="0" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D379" s="0" t="s">
         <v>2</v>
@@ -7294,7 +7320,7 @@
     </row>
     <row r="380">
       <c r="A380" s="0" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B380" s="0" t="s">
         <v>166</v>
@@ -7308,7 +7334,7 @@
     </row>
     <row r="381">
       <c r="A381" s="0" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B381" s="0" t="s">
         <v>168</v>
@@ -7322,7 +7348,7 @@
     </row>
     <row r="382">
       <c r="A382" s="0" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B382" s="0" t="s">
         <v>170</v>
@@ -7336,7 +7362,7 @@
     </row>
     <row r="383">
       <c r="A383" s="0" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B383" s="0" t="s">
         <v>172</v>
@@ -7350,7 +7376,7 @@
     </row>
     <row r="384">
       <c r="A384" s="0" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B384" s="0" t="s">
         <v>174</v>
@@ -7364,7 +7390,7 @@
     </row>
     <row r="385">
       <c r="A385" s="0" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B385" s="0" t="s">
         <v>176</v>
@@ -7378,7 +7404,7 @@
     </row>
     <row r="386">
       <c r="A386" s="0" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B386" s="0" t="s">
         <v>178</v>
@@ -7392,7 +7418,7 @@
     </row>
     <row r="387">
       <c r="A387" s="0" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B387" s="0" t="s">
         <v>172</v>
@@ -7406,7 +7432,7 @@
     </row>
     <row r="388">
       <c r="A388" s="0" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B388" s="0" t="s">
         <v>174</v>
@@ -7420,7 +7446,7 @@
     </row>
     <row r="389">
       <c r="A389" s="0" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B389" s="0" t="s">
         <v>182</v>
@@ -7434,7 +7460,7 @@
     </row>
     <row r="390">
       <c r="A390" s="0" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B390" s="0" t="s">
         <v>176</v>
@@ -7448,7 +7474,7 @@
     </row>
     <row r="391">
       <c r="A391" s="0" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B391" s="0" t="s">
         <v>185</v>
@@ -7462,7 +7488,7 @@
     </row>
     <row r="392">
       <c r="A392" s="0" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B392" s="0" t="s">
         <v>172</v>
@@ -7476,7 +7502,7 @@
     </row>
     <row r="393">
       <c r="A393" s="0" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B393" s="0" t="s">
         <v>188</v>
@@ -7490,7 +7516,7 @@
     </row>
     <row r="394">
       <c r="A394" s="0" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B394" s="0" t="s">
         <v>190</v>
@@ -7504,7 +7530,7 @@
     </row>
     <row r="395">
       <c r="A395" s="0" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B395" s="0" t="s">
         <v>192</v>
@@ -7518,7 +7544,7 @@
     </row>
     <row r="396">
       <c r="A396" s="0" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B396" s="0" t="s">
         <v>172</v>
@@ -7532,7 +7558,7 @@
     </row>
     <row r="397">
       <c r="A397" s="0" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B397" s="0" t="s">
         <v>188</v>
@@ -7546,7 +7572,7 @@
     </row>
     <row r="398">
       <c r="A398" s="0" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B398" s="0" t="s">
         <v>190</v>
@@ -7560,7 +7586,7 @@
     </row>
     <row r="399">
       <c r="A399" s="0" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B399" s="0" t="s">
         <v>197</v>
@@ -7574,7 +7600,7 @@
     </row>
     <row r="400">
       <c r="A400" s="0" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B400" s="0" t="s">
         <v>199</v>
@@ -7588,7 +7614,7 @@
     </row>
     <row r="401">
       <c r="A401" s="0" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B401" s="0" t="s">
         <v>201</v>
@@ -7602,7 +7628,7 @@
     </row>
     <row r="402">
       <c r="A402" s="0" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B402" s="0" t="s">
         <v>203</v>
@@ -7616,7 +7642,7 @@
     </row>
     <row r="403">
       <c r="A403" s="0" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B403" s="0" t="s">
         <v>205</v>
@@ -7630,7 +7656,7 @@
     </row>
     <row r="404">
       <c r="A404" s="0" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B404" s="0" t="s">
         <v>207</v>
@@ -7644,7 +7670,7 @@
     </row>
     <row r="405">
       <c r="A405" s="0" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B405" s="0" t="s">
         <v>209</v>
@@ -7658,7 +7684,7 @@
     </row>
     <row r="406">
       <c r="A406" s="0" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B406" s="0" t="s">
         <v>211</v>
@@ -7672,7 +7698,7 @@
     </row>
     <row r="407">
       <c r="A407" s="0" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B407" s="0" t="s">
         <v>213</v>
@@ -7686,7 +7712,7 @@
     </row>
     <row r="408">
       <c r="A408" s="0" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B408" s="0" t="s">
         <v>215</v>
@@ -7700,7 +7726,7 @@
     </row>
     <row r="409">
       <c r="A409" s="0" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B409" s="0" t="s">
         <v>217</v>
@@ -7714,7 +7740,7 @@
     </row>
     <row r="410">
       <c r="A410" s="0" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B410" s="0" t="s">
         <v>217</v>
@@ -7728,7 +7754,7 @@
     </row>
     <row r="411">
       <c r="A411" s="0" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B411" s="0" t="s">
         <v>146</v>
@@ -7742,7 +7768,7 @@
     </row>
     <row r="412">
       <c r="A412" s="0" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B412" s="0" t="s">
         <v>163</v>
@@ -7756,7 +7782,7 @@
     </row>
     <row r="413">
       <c r="A413" s="0" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B413" s="0" t="s">
         <v>121</v>
@@ -7770,13 +7796,13 @@
     </row>
     <row r="414">
       <c r="A414" s="0" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C414" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D414" s="0" t="s">
         <v>2</v>
@@ -7784,7 +7810,7 @@
     </row>
     <row r="415">
       <c r="A415" s="0" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B415" s="0" t="s">
         <v>1</v>
@@ -7798,7 +7824,7 @@
     </row>
     <row r="416">
       <c r="A416" s="0" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B416" s="0" t="s">
         <v>4</v>
@@ -7812,7 +7838,7 @@
     </row>
     <row r="417">
       <c r="A417" s="0" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B417" s="0" t="s">
         <v>6</v>
@@ -7826,7 +7852,7 @@
     </row>
     <row r="418">
       <c r="A418" s="0" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B418" s="0" t="s">
         <v>8</v>
@@ -7840,7 +7866,7 @@
     </row>
     <row r="419">
       <c r="A419" s="0" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B419" s="0" t="s">
         <v>10</v>
@@ -7854,7 +7880,7 @@
     </row>
     <row r="420">
       <c r="A420" s="0" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B420" s="0" t="s">
         <v>12</v>
@@ -7868,7 +7894,7 @@
     </row>
     <row r="421">
       <c r="A421" s="0" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B421" s="0" t="s">
         <v>14</v>
@@ -7882,7 +7908,7 @@
     </row>
     <row r="422">
       <c r="A422" s="0" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B422" s="0" t="s">
         <v>16</v>
@@ -7896,7 +7922,7 @@
     </row>
     <row r="423">
       <c r="A423" s="0" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B423" s="0" t="s">
         <v>18</v>
@@ -7910,7 +7936,7 @@
     </row>
     <row r="424">
       <c r="A424" s="0" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B424" s="0" t="s">
         <v>20</v>
@@ -7924,7 +7950,7 @@
     </row>
     <row r="425">
       <c r="A425" s="0" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B425" s="0" t="s">
         <v>22</v>
@@ -7938,7 +7964,7 @@
     </row>
     <row r="426">
       <c r="A426" s="0" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B426" s="0" t="s">
         <v>24</v>
@@ -7952,7 +7978,7 @@
     </row>
     <row r="427">
       <c r="A427" s="0" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B427" s="0" t="s">
         <v>24</v>
@@ -7966,7 +7992,7 @@
     </row>
     <row r="428">
       <c r="A428" s="0" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B428" s="0" t="s">
         <v>27</v>
@@ -7980,7 +8006,7 @@
     </row>
     <row r="429">
       <c r="A429" s="0" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B429" s="0" t="s">
         <v>29</v>
@@ -7994,7 +8020,7 @@
     </row>
     <row r="430">
       <c r="A430" s="0" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B430" s="0" t="s">
         <v>29</v>
@@ -8008,7 +8034,7 @@
     </row>
     <row r="431">
       <c r="A431" s="0" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B431" s="0" t="s">
         <v>32</v>
@@ -8022,7 +8048,7 @@
     </row>
     <row r="432">
       <c r="A432" s="0" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B432" s="0" t="s">
         <v>32</v>
@@ -8036,7 +8062,7 @@
     </row>
     <row r="433">
       <c r="A433" s="0" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B433" s="0" t="s">
         <v>27</v>
@@ -8050,7 +8076,7 @@
     </row>
     <row r="434">
       <c r="A434" s="0" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B434" s="0" t="s">
         <v>36</v>
@@ -8064,7 +8090,7 @@
     </row>
     <row r="435">
       <c r="A435" s="0" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B435" s="0" t="s">
         <v>38</v>
@@ -8078,7 +8104,7 @@
     </row>
     <row r="436">
       <c r="A436" s="0" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B436" s="0" t="s">
         <v>36</v>
@@ -8092,7 +8118,7 @@
     </row>
     <row r="437">
       <c r="A437" s="0" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B437" s="0" t="s">
         <v>41</v>
@@ -8106,7 +8132,7 @@
     </row>
     <row r="438">
       <c r="A438" s="0" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B438" s="0" t="s">
         <v>43</v>
@@ -8120,7 +8146,7 @@
     </row>
     <row r="439">
       <c r="A439" s="0" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B439" s="0" t="s">
         <v>45</v>
@@ -8134,7 +8160,7 @@
     </row>
     <row r="440">
       <c r="A440" s="0" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B440" s="0" t="s">
         <v>47</v>
@@ -8146,23 +8172,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="B441" s="0" t="s">
+    <row r="441" s="1" customFormat="1">
+      <c r="A441" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C441" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C441" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D441" s="0" t="s">
+      <c r="D441" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="0" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B442" s="0" t="s">
         <v>43</v>
@@ -8174,23 +8200,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="B443" s="0" t="s">
+    <row r="443" s="1" customFormat="1">
+      <c r="A443" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C443" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C443" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D443" s="0" t="s">
+      <c r="D443" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="0" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B444" s="0" t="s">
         <v>47</v>
@@ -8202,23 +8228,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="B445" s="0" t="s">
+    <row r="445" s="1" customFormat="1">
+      <c r="A445" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C445" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C445" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D445" s="0" t="s">
+      <c r="D445" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="0" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B446" s="0" t="s">
         <v>43</v>
@@ -8230,23 +8256,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B447" s="0" t="s">
+    <row r="447" s="1" customFormat="1">
+      <c r="A447" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C447" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C447" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D447" s="0" t="s">
+      <c r="D447" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="0" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B448" s="0" t="s">
         <v>47</v>
@@ -8260,7 +8286,7 @@
     </row>
     <row r="449">
       <c r="A449" s="0" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B449" s="0" t="s">
         <v>60</v>
@@ -8274,7 +8300,7 @@
     </row>
     <row r="450">
       <c r="A450" s="0" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B450" s="0" t="s">
         <v>62</v>
@@ -8288,7 +8314,7 @@
     </row>
     <row r="451">
       <c r="A451" s="0" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B451" s="0" t="s">
         <v>64</v>
@@ -8302,7 +8328,7 @@
     </row>
     <row r="452">
       <c r="A452" s="0" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B452" s="0" t="s">
         <v>66</v>
@@ -8316,7 +8342,7 @@
     </row>
     <row r="453">
       <c r="A453" s="0" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B453" s="0" t="s">
         <v>62</v>
@@ -8330,7 +8356,7 @@
     </row>
     <row r="454">
       <c r="A454" s="0" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B454" s="0" t="s">
         <v>62</v>
@@ -8344,7 +8370,7 @@
     </row>
     <row r="455">
       <c r="A455" s="0" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B455" s="0" t="s">
         <v>62</v>
@@ -8358,7 +8384,7 @@
     </row>
     <row r="456">
       <c r="A456" s="0" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B456" s="0" t="s">
         <v>62</v>
@@ -8372,7 +8398,7 @@
     </row>
     <row r="457">
       <c r="A457" s="0" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B457" s="0" t="s">
         <v>62</v>
@@ -8386,7 +8412,7 @@
     </row>
     <row r="458">
       <c r="A458" s="0" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B458" s="0" t="s">
         <v>62</v>
@@ -8400,7 +8426,7 @@
     </row>
     <row r="459">
       <c r="A459" s="0" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B459" s="0" t="s">
         <v>74</v>
@@ -8414,7 +8440,7 @@
     </row>
     <row r="460">
       <c r="A460" s="0" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B460" s="0" t="s">
         <v>76</v>
@@ -8428,7 +8454,7 @@
     </row>
     <row r="461">
       <c r="A461" s="0" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B461" s="0" t="s">
         <v>78</v>
@@ -8442,7 +8468,7 @@
     </row>
     <row r="462">
       <c r="A462" s="0" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B462" s="0" t="s">
         <v>74</v>
@@ -8456,7 +8482,7 @@
     </row>
     <row r="463">
       <c r="A463" s="0" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B463" s="0" t="s">
         <v>76</v>
@@ -8470,7 +8496,7 @@
     </row>
     <row r="464">
       <c r="A464" s="0" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B464" s="0" t="s">
         <v>78</v>
@@ -8484,7 +8510,7 @@
     </row>
     <row r="465">
       <c r="A465" s="0" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B465" s="0" t="s">
         <v>83</v>
@@ -8498,7 +8524,7 @@
     </row>
     <row r="466">
       <c r="A466" s="0" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B466" s="0" t="s">
         <v>85</v>
@@ -8512,7 +8538,7 @@
     </row>
     <row r="467">
       <c r="A467" s="0" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B467" s="0" t="s">
         <v>87</v>
@@ -8526,7 +8552,7 @@
     </row>
     <row r="468">
       <c r="A468" s="0" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B468" s="0" t="s">
         <v>89</v>
@@ -8540,7 +8566,7 @@
     </row>
     <row r="469">
       <c r="A469" s="0" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B469" s="0" t="s">
         <v>91</v>
@@ -8554,7 +8580,7 @@
     </row>
     <row r="470">
       <c r="A470" s="0" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B470" s="0" t="s">
         <v>87</v>
@@ -8568,7 +8594,7 @@
     </row>
     <row r="471">
       <c r="A471" s="0" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B471" s="0" t="s">
         <v>89</v>
@@ -8582,7 +8608,7 @@
     </row>
     <row r="472">
       <c r="A472" s="0" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B472" s="0" t="s">
         <v>91</v>
@@ -8596,7 +8622,7 @@
     </row>
     <row r="473">
       <c r="A473" s="0" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B473" s="0" t="s">
         <v>96</v>
@@ -8610,7 +8636,7 @@
     </row>
     <row r="474">
       <c r="A474" s="0" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B474" s="0" t="s">
         <v>98</v>
@@ -8624,7 +8650,7 @@
     </row>
     <row r="475">
       <c r="A475" s="0" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B475" s="0" t="s">
         <v>100</v>
@@ -8638,7 +8664,7 @@
     </row>
     <row r="476">
       <c r="A476" s="0" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B476" s="0" t="s">
         <v>102</v>
@@ -8652,7 +8678,7 @@
     </row>
     <row r="477">
       <c r="A477" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B477" s="0" t="s">
         <v>104</v>
@@ -8666,7 +8692,7 @@
     </row>
     <row r="478">
       <c r="A478" s="0" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B478" s="0" t="s">
         <v>43</v>
@@ -8680,7 +8706,7 @@
     </row>
     <row r="479">
       <c r="A479" s="0" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B479" s="0" t="s">
         <v>104</v>
@@ -8694,7 +8720,7 @@
     </row>
     <row r="480">
       <c r="A480" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B480" s="0" t="s">
         <v>47</v>
@@ -8708,13 +8734,13 @@
     </row>
     <row r="481">
       <c r="A481" s="0" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C481" s="0" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D481" s="0" t="s">
         <v>2</v>
@@ -8722,7 +8748,7 @@
     </row>
     <row r="482">
       <c r="A482" s="0" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B482" s="0" t="s">
         <v>111</v>
@@ -8736,7 +8762,7 @@
     </row>
     <row r="483">
       <c r="A483" s="0" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B483" s="0" t="s">
         <v>113</v>
@@ -8750,7 +8776,7 @@
     </row>
     <row r="484">
       <c r="A484" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B484" s="0" t="s">
         <v>115</v>
@@ -8764,7 +8790,7 @@
     </row>
     <row r="485">
       <c r="A485" s="0" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B485" s="0" t="s">
         <v>117</v>
@@ -8778,7 +8804,7 @@
     </row>
     <row r="486">
       <c r="A486" s="0" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B486" s="0" t="s">
         <v>119</v>
@@ -8792,7 +8818,7 @@
     </row>
     <row r="487">
       <c r="A487" s="0" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B487" s="0" t="s">
         <v>121</v>
@@ -8806,7 +8832,7 @@
     </row>
     <row r="488">
       <c r="A488" s="0" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B488" s="0" t="s">
         <v>115</v>
@@ -8820,7 +8846,7 @@
     </row>
     <row r="489">
       <c r="A489" s="0" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B489" s="0" t="s">
         <v>117</v>
@@ -8834,7 +8860,7 @@
     </row>
     <row r="490">
       <c r="A490" s="0" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B490" s="0" t="s">
         <v>125</v>
@@ -8848,7 +8874,7 @@
     </row>
     <row r="491">
       <c r="A491" s="0" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B491" s="0" t="s">
         <v>127</v>
@@ -8862,7 +8888,7 @@
     </row>
     <row r="492">
       <c r="A492" s="0" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B492" s="0" t="s">
         <v>115</v>
@@ -8876,7 +8902,7 @@
     </row>
     <row r="493">
       <c r="A493" s="0" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B493" s="0" t="s">
         <v>117</v>
@@ -8890,7 +8916,7 @@
     </row>
     <row r="494">
       <c r="A494" s="0" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B494" s="0" t="s">
         <v>131</v>
@@ -8904,7 +8930,7 @@
     </row>
     <row r="495">
       <c r="A495" s="0" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B495" s="0" t="s">
         <v>133</v>
@@ -8918,7 +8944,7 @@
     </row>
     <row r="496">
       <c r="A496" s="0" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B496" s="0" t="s">
         <v>127</v>
@@ -8932,7 +8958,7 @@
     </row>
     <row r="497">
       <c r="A497" s="0" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B497" s="0" t="s">
         <v>115</v>
@@ -8946,7 +8972,7 @@
     </row>
     <row r="498">
       <c r="A498" s="0" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B498" s="0" t="s">
         <v>117</v>
@@ -8960,7 +8986,7 @@
     </row>
     <row r="499">
       <c r="A499" s="0" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B499" s="0" t="s">
         <v>138</v>
@@ -8974,7 +9000,7 @@
     </row>
     <row r="500">
       <c r="A500" s="0" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B500" s="0" t="s">
         <v>140</v>
@@ -8988,7 +9014,7 @@
     </row>
     <row r="501">
       <c r="A501" s="0" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B501" s="0" t="s">
         <v>115</v>
@@ -9002,7 +9028,7 @@
     </row>
     <row r="502">
       <c r="A502" s="0" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B502" s="0" t="s">
         <v>117</v>
@@ -9016,7 +9042,7 @@
     </row>
     <row r="503">
       <c r="A503" s="0" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B503" s="0" t="s">
         <v>119</v>
@@ -9030,7 +9056,7 @@
     </row>
     <row r="504">
       <c r="A504" s="0" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B504" s="0" t="s">
         <v>140</v>
@@ -9044,7 +9070,7 @@
     </row>
     <row r="505">
       <c r="A505" s="0" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B505" s="0" t="s">
         <v>146</v>
@@ -9058,7 +9084,7 @@
     </row>
     <row r="506">
       <c r="A506" s="0" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B506" s="0" t="s">
         <v>115</v>
@@ -9072,7 +9098,7 @@
     </row>
     <row r="507">
       <c r="A507" s="0" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B507" s="0" t="s">
         <v>117</v>
@@ -9086,7 +9112,7 @@
     </row>
     <row r="508">
       <c r="A508" s="0" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B508" s="0" t="s">
         <v>125</v>
@@ -9100,7 +9126,7 @@
     </row>
     <row r="509">
       <c r="A509" s="0" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B509" s="0" t="s">
         <v>151</v>
@@ -9114,7 +9140,7 @@
     </row>
     <row r="510">
       <c r="A510" s="0" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B510" s="0" t="s">
         <v>153</v>
@@ -9128,7 +9154,7 @@
     </row>
     <row r="511">
       <c r="A511" s="0" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B511" s="0" t="s">
         <v>151</v>
@@ -9142,7 +9168,7 @@
     </row>
     <row r="512">
       <c r="A512" s="0" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B512" s="0" t="s">
         <v>156</v>
@@ -9156,7 +9182,7 @@
     </row>
     <row r="513">
       <c r="A513" s="0" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B513" s="0" t="s">
         <v>158</v>
@@ -9170,7 +9196,7 @@
     </row>
     <row r="514">
       <c r="A514" s="0" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B514" s="0" t="s">
         <v>158</v>
@@ -9184,13 +9210,13 @@
     </row>
     <row r="515">
       <c r="A515" s="0" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C515" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D515" s="0" t="s">
         <v>2</v>
@@ -9198,7 +9224,7 @@
     </row>
     <row r="516">
       <c r="A516" s="0" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B516" s="0" t="s">
         <v>163</v>
@@ -9212,13 +9238,13 @@
     </row>
     <row r="517">
       <c r="A517" s="0" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C517" s="0" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D517" s="0" t="s">
         <v>2</v>
@@ -9226,7 +9252,7 @@
     </row>
     <row r="518">
       <c r="A518" s="0" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B518" s="0" t="s">
         <v>166</v>
@@ -9240,7 +9266,7 @@
     </row>
     <row r="519">
       <c r="A519" s="0" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B519" s="0" t="s">
         <v>168</v>
@@ -9254,7 +9280,7 @@
     </row>
     <row r="520">
       <c r="A520" s="0" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B520" s="0" t="s">
         <v>170</v>
@@ -9268,7 +9294,7 @@
     </row>
     <row r="521">
       <c r="A521" s="0" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B521" s="0" t="s">
         <v>172</v>
@@ -9282,7 +9308,7 @@
     </row>
     <row r="522">
       <c r="A522" s="0" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B522" s="0" t="s">
         <v>174</v>
@@ -9296,7 +9322,7 @@
     </row>
     <row r="523">
       <c r="A523" s="0" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B523" s="0" t="s">
         <v>176</v>
@@ -9310,7 +9336,7 @@
     </row>
     <row r="524">
       <c r="A524" s="0" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B524" s="0" t="s">
         <v>178</v>
@@ -9324,7 +9350,7 @@
     </row>
     <row r="525">
       <c r="A525" s="0" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B525" s="0" t="s">
         <v>172</v>
@@ -9338,7 +9364,7 @@
     </row>
     <row r="526">
       <c r="A526" s="0" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B526" s="0" t="s">
         <v>174</v>
@@ -9352,7 +9378,7 @@
     </row>
     <row r="527">
       <c r="A527" s="0" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B527" s="0" t="s">
         <v>182</v>
@@ -9366,7 +9392,7 @@
     </row>
     <row r="528">
       <c r="A528" s="0" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B528" s="0" t="s">
         <v>176</v>
@@ -9380,7 +9406,7 @@
     </row>
     <row r="529">
       <c r="A529" s="0" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B529" s="0" t="s">
         <v>185</v>
@@ -9394,7 +9420,7 @@
     </row>
     <row r="530">
       <c r="A530" s="0" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B530" s="0" t="s">
         <v>172</v>
@@ -9408,7 +9434,7 @@
     </row>
     <row r="531">
       <c r="A531" s="0" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B531" s="0" t="s">
         <v>188</v>
@@ -9422,7 +9448,7 @@
     </row>
     <row r="532">
       <c r="A532" s="0" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B532" s="0" t="s">
         <v>190</v>
@@ -9436,7 +9462,7 @@
     </row>
     <row r="533">
       <c r="A533" s="0" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="B533" s="0" t="s">
         <v>192</v>
@@ -9450,7 +9476,7 @@
     </row>
     <row r="534">
       <c r="A534" s="0" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B534" s="0" t="s">
         <v>172</v>
@@ -9464,7 +9490,7 @@
     </row>
     <row r="535">
       <c r="A535" s="0" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B535" s="0" t="s">
         <v>188</v>
@@ -9478,7 +9504,7 @@
     </row>
     <row r="536">
       <c r="A536" s="0" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B536" s="0" t="s">
         <v>190</v>
@@ -9492,7 +9518,7 @@
     </row>
     <row r="537">
       <c r="A537" s="0" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B537" s="0" t="s">
         <v>197</v>
@@ -9506,7 +9532,7 @@
     </row>
     <row r="538">
       <c r="A538" s="0" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B538" s="0" t="s">
         <v>199</v>
@@ -9520,7 +9546,7 @@
     </row>
     <row r="539">
       <c r="A539" s="0" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B539" s="0" t="s">
         <v>201</v>
@@ -9534,7 +9560,7 @@
     </row>
     <row r="540">
       <c r="A540" s="0" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B540" s="0" t="s">
         <v>203</v>
@@ -9548,7 +9574,7 @@
     </row>
     <row r="541">
       <c r="A541" s="0" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B541" s="0" t="s">
         <v>205</v>
@@ -9562,7 +9588,7 @@
     </row>
     <row r="542">
       <c r="A542" s="0" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B542" s="0" t="s">
         <v>207</v>
@@ -9576,7 +9602,7 @@
     </row>
     <row r="543">
       <c r="A543" s="0" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B543" s="0" t="s">
         <v>209</v>
@@ -9590,7 +9616,7 @@
     </row>
     <row r="544">
       <c r="A544" s="0" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B544" s="0" t="s">
         <v>211</v>
@@ -9604,7 +9630,7 @@
     </row>
     <row r="545">
       <c r="A545" s="0" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B545" s="0" t="s">
         <v>213</v>
@@ -9618,7 +9644,7 @@
     </row>
     <row r="546">
       <c r="A546" s="0" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B546" s="0" t="s">
         <v>215</v>
@@ -9632,7 +9658,7 @@
     </row>
     <row r="547">
       <c r="A547" s="0" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B547" s="0" t="s">
         <v>217</v>
@@ -9646,7 +9672,7 @@
     </row>
     <row r="548">
       <c r="A548" s="0" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B548" s="0" t="s">
         <v>217</v>
@@ -9660,7 +9686,7 @@
     </row>
     <row r="549">
       <c r="A549" s="0" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B549" s="0" t="s">
         <v>146</v>
@@ -9674,7 +9700,7 @@
     </row>
     <row r="550">
       <c r="A550" s="0" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B550" s="0" t="s">
         <v>163</v>
@@ -9688,7 +9714,7 @@
     </row>
     <row r="551">
       <c r="A551" s="0" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B551" s="0" t="s">
         <v>121</v>
@@ -9702,13 +9728,13 @@
     </row>
     <row r="552">
       <c r="A552" s="0" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C552" s="0" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D552" s="0" t="s">
         <v>2</v>
